--- a/Dataset_Cleaned/LiteratureDataset_Corrosion_YW_v3_processed.xlsx
+++ b/Dataset_Cleaned/LiteratureDataset_Corrosion_YW_v3_processed.xlsx
@@ -23304,7 +23304,7 @@
         <v>1858.835903444281</v>
       </c>
       <c r="AA226" t="n">
-        <v>256.8916499239506</v>
+        <v>256.8916499239505</v>
       </c>
       <c r="AB226" t="n">
         <v>-5.775704151095004</v>
@@ -28348,7 +28348,7 @@
         <v>1.66</v>
       </c>
       <c r="Y276" t="n">
-        <v>0.04913342989005455</v>
+        <v>0.04913342989005454</v>
       </c>
       <c r="Z276" t="n">
         <v>1830.388499186939</v>
@@ -28853,7 +28853,7 @@
         <v>1.66</v>
       </c>
       <c r="Y281" t="n">
-        <v>0.04913342989005455</v>
+        <v>0.04913342989005454</v>
       </c>
       <c r="Z281" t="n">
         <v>1830.388499186939</v>

--- a/Dataset_Cleaned/LiteratureDataset_Corrosion_YW_v3_processed.xlsx
+++ b/Dataset_Cleaned/LiteratureDataset_Corrosion_YW_v3_processed.xlsx
@@ -23304,7 +23304,7 @@
         <v>1858.835903444281</v>
       </c>
       <c r="AA226" t="n">
-        <v>256.8916499239505</v>
+        <v>256.8916499239506</v>
       </c>
       <c r="AB226" t="n">
         <v>-5.775704151095004</v>
@@ -28348,7 +28348,7 @@
         <v>1.66</v>
       </c>
       <c r="Y276" t="n">
-        <v>0.04913342989005454</v>
+        <v>0.04913342989005455</v>
       </c>
       <c r="Z276" t="n">
         <v>1830.388499186939</v>
@@ -28853,7 +28853,7 @@
         <v>1.66</v>
       </c>
       <c r="Y281" t="n">
-        <v>0.04913342989005454</v>
+        <v>0.04913342989005455</v>
       </c>
       <c r="Z281" t="n">
         <v>1830.388499186939</v>
